--- a/stata/Resultado APOS  TRANSF.xlsx
+++ b/stata/Resultado APOS  TRANSF.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAGEN\Documents\GitHub\teseLegibildiadeCPC\stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2458472B-389F-45CE-AD0A-20E4BB7C3DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1605" windowWidth="18000" windowHeight="9360" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRITIVA" sheetId="4" r:id="rId1"/>
@@ -24,18 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="160">
   <si>
     <t>LegNE</t>
   </si>
@@ -259,9 +254,6 @@
     <t>V'</t>
   </si>
   <si>
-    <t>0.96277</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -361,19 +353,7 @@
     <t>-.2208166</t>
   </si>
   <si>
-    <t>0.98781</t>
-  </si>
-  <si>
     <t>0.01004</t>
-  </si>
-  <si>
-    <t>0.97005</t>
-  </si>
-  <si>
-    <t>0.91304</t>
-  </si>
-  <si>
-    <t>0.99013</t>
   </si>
   <si>
     <t>0.03050</t>
@@ -535,7 +515,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,10 +548,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,11 +873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +906,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -935,19 +924,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -959,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
         <v>6</v>
@@ -1235,19 +1224,19 @@
         <v>23084</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
@@ -1259,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P9" s="1">
         <v>1293016</v>
@@ -1285,19 +1274,19 @@
         <v>4954248</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -1309,7 +1298,7 @@
         <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
         <v>36</v>
@@ -1771,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1902,7 +1891,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>320</v>
@@ -1942,7 +1931,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>320</v>
@@ -1982,7 +1971,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>320</v>
@@ -2062,7 +2051,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>320</v>
@@ -2106,18 +2095,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,11 +2141,11 @@
       <c r="B4">
         <v>320</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
+      <c r="C4" s="2">
+        <v>0.96277000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9088</v>
+        <v>9.0879999999999992</v>
       </c>
       <c r="E4" s="1">
         <v>4704</v>
@@ -2171,7 +2161,7 @@
       <c r="B5" s="1">
         <v>320</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -2191,11 +2181,11 @@
       <c r="B6" s="1">
         <v>320</v>
       </c>
-      <c r="C6" s="1">
-        <v>100000</v>
+      <c r="C6" s="3">
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -2206,36 +2196,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>320</v>
       </c>
-      <c r="C7" t="s">
-        <v>108</v>
+      <c r="C7" s="2">
+        <v>0.98780999999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>2976</v>
+        <v>2.976</v>
       </c>
       <c r="E7" s="1">
         <v>2325</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>320</v>
       </c>
-      <c r="C8" t="s">
-        <v>110</v>
+      <c r="C8" s="2">
+        <v>0.97004999999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>7312</v>
+        <v>7.3120000000000003</v>
       </c>
       <c r="E8" s="1">
         <v>4241</v>
@@ -2246,13 +2236,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1">
         <v>320</v>
       </c>
-      <c r="C9" t="s">
-        <v>111</v>
+      <c r="C9" s="2">
+        <v>0.91303999999999996</v>
       </c>
       <c r="D9" s="1">
         <v>21230</v>
@@ -2271,11 +2261,11 @@
       <c r="B10" s="1">
         <v>320</v>
       </c>
-      <c r="C10" s="1">
-        <v>100000</v>
+      <c r="C10" s="3">
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1">
         <v>-60965</v>
@@ -2291,11 +2281,11 @@
       <c r="B11" s="1">
         <v>320</v>
       </c>
-      <c r="C11" s="1">
-        <v>100000</v>
+      <c r="C11" s="3">
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1">
         <v>-59203</v>
@@ -2306,13 +2296,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1">
         <v>320</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>112</v>
+      <c r="C12" s="4">
+        <v>0.99012999999999995</v>
       </c>
       <c r="D12" s="1">
         <v>2408</v>
@@ -2321,7 +2311,7 @@
         <v>1874</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,11 +2321,11 @@
       <c r="B13" s="1">
         <v>320</v>
       </c>
-      <c r="C13" s="1">
-        <v>100000</v>
+      <c r="C13" s="3">
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -2346,7 +2336,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2365,7 +2355,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -2374,10 +2364,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,16 +2378,16 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,16 +2398,16 @@
         <v>320</v>
       </c>
       <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,7 +2438,7 @@
         <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -2462,62 +2452,62 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2528,7 +2518,7 @@
         <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -2548,36 +2538,36 @@
         <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12">
         <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2588,7 +2578,7 @@
         <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -2602,7 +2592,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2634,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -2651,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -2676,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2685,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -2705,16 +2695,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
@@ -2730,37 +2720,37 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N9" s="1">
         <v>10000</v>
@@ -2771,22 +2761,22 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I10" s="1">
         <v>10000</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
@@ -2797,25 +2787,25 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P11" s="1">
         <v>10000</v>
@@ -2823,31 +2813,31 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
         <v>140</v>
-      </c>
-      <c r="I12" t="s">
-        <v>141</v>
-      </c>
-      <c r="N12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" t="s">
-        <v>145</v>
       </c>
       <c r="Q12" s="1">
         <v>10000</v>
@@ -2858,19 +2848,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2899,29 +2889,29 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,21 +2919,21 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,21 +2941,21 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,10 +2963,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,18 +2974,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
